--- a/biology/Zoologie/Homalophis/Homalophis.xlsx
+++ b/biology/Zoologie/Homalophis/Homalophis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Homalophis est un genre de serpents de la famille des Homalopsidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Homalophis est un genre de serpents de la famille des Homalopsidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les deux espèces se rencontrent sont endémiques de Bornéo[1]. [1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les deux espèces se rencontrent sont endémiques de Bornéo. .
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (10 décembre 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (10 décembre 2014) :
 Homalophis doriae Peters, 1871
 Homalophis gyii (Murphy, Voris &amp; Auliya, 2005)</t>
         </is>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Peters, 1871 : Über neue Reptilien aus Ostafrica und Sarawak (Borneo), vorzüglich aus der Sammlung des Hrn. Marquis J. Doria zu Genua. Monatsberichte der Königlichen Akademie der Wissenschaften zu Berlin, vol. 1871, p. 566-581 (texte intégral).</t>
         </is>
